--- a/sawg-stomach/source/sawg-stomach.xlsx
+++ b/sawg-stomach/source/sawg-stomach.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="614">
   <si>
     <t>id</t>
   </si>
@@ -70,121 +70,124 @@
     <t>Stomach Model</t>
   </si>
   <si>
+    <t>sstom</t>
+  </si>
+  <si>
+    <t>subtypes</t>
+  </si>
+  <si>
+    <t>isTemplate</t>
+  </si>
+  <si>
+    <t>topology</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>supertype</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>internalIn</t>
+  </si>
+  <si>
+    <t>internalLyphs</t>
+  </si>
+  <si>
+    <t>internalLyphsInLayers</t>
+  </si>
+  <si>
+    <t>channels</t>
+  </si>
+  <si>
+    <t>bundlesChains</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>seedIn</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>insula</t>
+  </si>
+  <si>
+    <t>UBERON:0002022</t>
+  </si>
+  <si>
+    <t>soma_in_2, soma_in_3</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>parabrachial nucleus</t>
+  </si>
+  <si>
+    <t>UBERON:0007634</t>
+  </si>
+  <si>
+    <t>soma_dn_1</t>
+  </si>
+  <si>
+    <t>nts</t>
+  </si>
+  <si>
+    <t>nucleus of the solitary tract</t>
+  </si>
+  <si>
+    <t>UBERON:0009050</t>
+  </si>
+  <si>
+    <t>soma_nts_4, soma_nts_6</t>
+  </si>
+  <si>
+    <t>nod</t>
+  </si>
+  <si>
+    <t>nodose</t>
+  </si>
+  <si>
+    <t>UBERON:0005363</t>
+  </si>
+  <si>
+    <t>soma_ng_5</t>
+  </si>
+  <si>
+    <t>dmv</t>
+  </si>
+  <si>
+    <t>dorsal motor nucleus of the vagus</t>
+  </si>
+  <si>
+    <t>UBERON:0002870</t>
+  </si>
+  <si>
+    <t>soma_dmv_7, soma_dmv_8, soma_dmv_9, soma_dmv_10</t>
+  </si>
+  <si>
+    <t>vn</t>
+  </si>
+  <si>
+    <t>vagus nerve</t>
+  </si>
+  <si>
+    <t>UBERON:0001759</t>
+  </si>
+  <si>
     <t>sto</t>
-  </si>
-  <si>
-    <t>subtypes</t>
-  </si>
-  <si>
-    <t>isTemplate</t>
-  </si>
-  <si>
-    <t>topology</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>thickness</t>
-  </si>
-  <si>
-    <t>layers</t>
-  </si>
-  <si>
-    <t>supertype</t>
-  </si>
-  <si>
-    <t>materials</t>
-  </si>
-  <si>
-    <t>internalIn</t>
-  </si>
-  <si>
-    <t>internalLyphs</t>
-  </si>
-  <si>
-    <t>internalLyphsInLayers</t>
-  </si>
-  <si>
-    <t>channels</t>
-  </si>
-  <si>
-    <t>bundlesChains</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>seedIn</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>insula</t>
-  </si>
-  <si>
-    <t>UBERON:0002022</t>
-  </si>
-  <si>
-    <t>soma_in_2, soma_in_3</t>
-  </si>
-  <si>
-    <t>pn</t>
-  </si>
-  <si>
-    <t>parabrachial nucleus</t>
-  </si>
-  <si>
-    <t>UBERON:0007634</t>
-  </si>
-  <si>
-    <t>soma_dn_1</t>
-  </si>
-  <si>
-    <t>nts</t>
-  </si>
-  <si>
-    <t>nucleus of the solitary tract</t>
-  </si>
-  <si>
-    <t>UBERON:0009050</t>
-  </si>
-  <si>
-    <t>soma_nts_4, soma_nts_6</t>
-  </si>
-  <si>
-    <t>nod</t>
-  </si>
-  <si>
-    <t>nodose</t>
-  </si>
-  <si>
-    <t>UBERON:0005363</t>
-  </si>
-  <si>
-    <t>soma_ng_5</t>
-  </si>
-  <si>
-    <t>dmv</t>
-  </si>
-  <si>
-    <t>dorsal motor nucleus of the vagus</t>
-  </si>
-  <si>
-    <t>UBERON:0002870</t>
-  </si>
-  <si>
-    <t>soma_dmv_7, soma_dmv_8, soma_dmv_9, soma_dmv_10</t>
-  </si>
-  <si>
-    <t>vn</t>
-  </si>
-  <si>
-    <t>vagus nerve</t>
-  </si>
-  <si>
-    <t>UBERON:0001759</t>
   </si>
   <si>
     <t>stomach</t>
@@ -2049,7 +2052,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2215,6 +2218,31 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -2227,12 +2255,6 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2256,6 +2278,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2595,114 +2620,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="79" t="s">
-        <v>587</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="87" t="s">
         <v>588</v>
       </c>
+      <c r="B2" s="88" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="79" t="s">
-        <v>589</v>
-      </c>
-      <c r="B3" s="81" t="s">
+      <c r="A3" s="87" t="s">
         <v>590</v>
       </c>
+      <c r="B3" s="89" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="79" t="s">
-        <v>591</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="87" t="s">
         <v>592</v>
       </c>
+      <c r="B4" s="90" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="79" t="s">
-        <v>593</v>
-      </c>
-      <c r="B5" s="82" t="s">
+      <c r="A5" s="87" t="s">
         <v>594</v>
       </c>
+      <c r="B5" s="90" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="79" t="s">
-        <v>595</v>
-      </c>
-      <c r="B6" s="82" t="s">
+      <c r="A6" s="87" t="s">
         <v>596</v>
       </c>
+      <c r="B6" s="90" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="79" t="s">
-        <v>597</v>
-      </c>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="87" t="s">
         <v>598</v>
       </c>
+      <c r="B7" s="90" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="79" t="s">
-        <v>599</v>
-      </c>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="87" t="s">
         <v>600</v>
       </c>
+      <c r="B8" s="90" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="79" t="s">
-        <v>601</v>
-      </c>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="87" t="s">
         <v>602</v>
       </c>
+      <c r="B9" s="90" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="79" t="s">
-        <v>603</v>
-      </c>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="87" t="s">
         <v>604</v>
       </c>
+      <c r="B10" s="90" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="79" t="s">
-        <v>605</v>
-      </c>
-      <c r="B11" s="82" t="s">
+      <c r="A11" s="87" t="s">
         <v>606</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B12" s="76" t="s">
         <v>608</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="B13" s="76" t="s">
         <v>610</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="B14" s="76" t="s">
         <v>612</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -2976,13 +3001,13 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="21" t="b">
@@ -2996,10 +3021,10 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -3008,13 +3033,13 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="b">
@@ -3036,13 +3061,13 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="b">
@@ -3064,13 +3089,13 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="b">
@@ -3092,13 +3117,13 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="b">
@@ -3120,13 +3145,13 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="21" t="b">
@@ -3148,13 +3173,13 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="b">
@@ -3176,13 +3201,13 @@
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="21" t="b">
@@ -3204,13 +3229,13 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="b">
@@ -3232,13 +3257,13 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="21" t="b">
@@ -3260,13 +3285,13 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -3274,16 +3299,16 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -3292,13 +3317,13 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -3306,16 +3331,16 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -3324,13 +3349,13 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -3338,7 +3363,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="14"/>
@@ -3352,13 +3377,13 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -3378,13 +3403,13 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -3404,13 +3429,13 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -3430,13 +3455,13 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -3456,13 +3481,13 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -3482,13 +3507,13 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -3508,13 +3533,13 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3534,13 +3559,13 @@
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -3560,13 +3585,13 @@
     </row>
     <row r="29">
       <c r="A29" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -3586,13 +3611,13 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -3612,13 +3637,13 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -3638,13 +3663,13 @@
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -3664,13 +3689,13 @@
     </row>
     <row r="33">
       <c r="A33" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="30" t="b">
@@ -3680,7 +3705,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J33" s="31"/>
       <c r="K33" s="14"/>
@@ -3694,20 +3719,20 @@
     </row>
     <row r="34">
       <c r="A34" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="33" t="b">
         <v>1</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -3726,13 +3751,13 @@
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -3752,13 +3777,13 @@
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -3781,10 +3806,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -3801,18 +3826,18 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -3829,18 +3854,18 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -3857,18 +3882,18 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -3885,7 +3910,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
@@ -3893,10 +3918,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -3913,18 +3938,18 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -3941,18 +3966,18 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -3969,18 +3994,18 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -3997,18 +4022,18 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -4025,18 +4050,18 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -4053,18 +4078,18 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -4081,18 +4106,18 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -4109,18 +4134,18 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -4137,18 +4162,18 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -4165,7 +4190,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
       <c r="R50" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4205,297 +4230,297 @@
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D2" s="31"/>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" s="39"/>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D16" s="14"/>
     </row>
     <row r="17">
       <c r="A17" s="38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D17" s="14"/>
     </row>
     <row r="18">
       <c r="A18" s="38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D18" s="14"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21">
       <c r="A21" s="42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D21" s="14"/>
     </row>
     <row r="22">
       <c r="A22" s="42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D22" s="14"/>
     </row>
     <row r="23">
       <c r="A23" s="42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D23" s="14"/>
     </row>
     <row r="24">
       <c r="A24" s="42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D24" s="14"/>
     </row>
     <row r="25">
       <c r="A25" s="42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D25" s="14"/>
     </row>
@@ -4530,571 +4555,286 @@
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+        <v>252</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="48"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -5142,55 +4882,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1" s="46" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="14"/>
@@ -5202,51 +4942,51 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D3" s="54"/>
-      <c r="E3" s="21">
-        <v>229.0</v>
+      <c r="E3" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="L3" s="47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="14"/>
@@ -5258,51 +4998,51 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D5" s="54"/>
-      <c r="E5" s="21">
-        <v>229.0</v>
+      <c r="E5" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="L5" s="47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="14"/>
@@ -5314,51 +5054,51 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D7" s="54"/>
-      <c r="E7" s="21">
-        <v>229.0</v>
+      <c r="E7" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="L7" s="47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="14"/>
@@ -5370,569 +5110,570 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D9" s="31"/>
-      <c r="E9" s="21">
-        <v>229.0</v>
+      <c r="E9" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="L9" s="47" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="B10" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="L10" s="47" t="s">
+      <c r="C10" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="14"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="21">
         <v>229.0</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="L11" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="s">
-        <v>353</v>
+      <c r="A12" s="64" t="s">
+        <v>354</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="21">
         <v>229.0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="L12" s="47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="55" t="s">
-        <v>357</v>
+      <c r="A13" s="64" t="s">
+        <v>358</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="L13" s="56" t="s">
         <v>361</v>
       </c>
+      <c r="L13" s="65" t="s">
+        <v>362</v>
+      </c>
       <c r="M13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="55" t="s">
-        <v>362</v>
+      <c r="A14" s="64" t="s">
+        <v>363</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="L14" s="56" t="s">
         <v>366</v>
       </c>
+      <c r="L14" s="65" t="s">
+        <v>367</v>
+      </c>
       <c r="M14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="55" t="s">
-        <v>367</v>
+      <c r="A15" s="64" t="s">
+        <v>368</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="L15" s="56" t="s">
         <v>371</v>
       </c>
+      <c r="L15" s="65" t="s">
+        <v>372</v>
+      </c>
       <c r="M15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="55" t="s">
-        <v>372</v>
+      <c r="A16" s="64" t="s">
+        <v>373</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="L16" s="56" t="s">
         <v>376</v>
       </c>
+      <c r="L16" s="65" t="s">
+        <v>377</v>
+      </c>
       <c r="M16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="55" t="s">
-        <v>377</v>
+      <c r="A17" s="64" t="s">
+        <v>378</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>380</v>
+        <v>361</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>381</v>
       </c>
       <c r="M17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="55" t="s">
-        <v>381</v>
+      <c r="A18" s="64" t="s">
+        <v>382</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>384</v>
+        <v>366</v>
+      </c>
+      <c r="L18" s="65" t="s">
+        <v>385</v>
       </c>
       <c r="M18" s="14"/>
     </row>
     <row r="19">
-      <c r="A19" s="55" t="s">
-        <v>385</v>
+      <c r="A19" s="64" t="s">
+        <v>386</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>388</v>
+        <v>371</v>
+      </c>
+      <c r="L19" s="65" t="s">
+        <v>389</v>
       </c>
       <c r="M19" s="14"/>
     </row>
     <row r="20">
-      <c r="A20" s="55" t="s">
-        <v>389</v>
+      <c r="A20" s="64" t="s">
+        <v>390</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>392</v>
+        <v>376</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>393</v>
       </c>
       <c r="M20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="55" t="s">
-        <v>393</v>
+      <c r="A21" s="64" t="s">
+        <v>394</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="L21" s="56" t="s">
         <v>397</v>
       </c>
+      <c r="L21" s="65" t="s">
+        <v>398</v>
+      </c>
       <c r="M21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="55" t="s">
-        <v>398</v>
+      <c r="A22" s="64" t="s">
+        <v>399</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="L22" s="56" t="s">
         <v>402</v>
+      </c>
+      <c r="L22" s="65" t="s">
+        <v>403</v>
       </c>
       <c r="M22" s="14"/>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="57"/>
+        <v>319</v>
+      </c>
+      <c r="D23" s="66"/>
       <c r="E23" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H23" s="42"/>
-      <c r="I23" s="58"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="14"/>
       <c r="K23" s="47">
         <v>0.0</v>
       </c>
-      <c r="L23" s="56" t="s">
+      <c r="L23" s="65" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="14"/>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="D24" s="57"/>
+        <v>323</v>
+      </c>
+      <c r="D24" s="66"/>
       <c r="E24" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H24" s="42"/>
-      <c r="I24" s="58"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="14"/>
       <c r="K24" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="56" t="s">
-        <v>409</v>
+        <v>49</v>
+      </c>
+      <c r="L24" s="65" t="s">
+        <v>410</v>
       </c>
       <c r="M24" s="14"/>
     </row>
     <row r="25">
       <c r="A25" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="57"/>
+        <v>319</v>
+      </c>
+      <c r="D25" s="66"/>
       <c r="E25" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H25" s="42"/>
-      <c r="I25" s="58"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="14"/>
       <c r="K25" s="47">
         <v>0.0</v>
       </c>
-      <c r="L25" s="56" t="s">
+      <c r="L25" s="65" t="s">
         <v>38</v>
       </c>
       <c r="M25" s="14"/>
     </row>
     <row r="26">
       <c r="A26" s="21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="L26" s="56" t="s">
         <v>417</v>
+      </c>
+      <c r="L26" s="65" t="s">
+        <v>418</v>
       </c>
       <c r="M26" s="14"/>
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="14"/>
@@ -5940,123 +5681,123 @@
       <c r="K27" s="47">
         <v>0.0</v>
       </c>
-      <c r="L27" s="56" t="s">
+      <c r="L27" s="65" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="14"/>
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="L28" s="56" t="s">
-        <v>424</v>
+        <v>417</v>
+      </c>
+      <c r="L28" s="65" t="s">
+        <v>425</v>
       </c>
       <c r="M28" s="14"/>
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="D29" s="57"/>
+        <v>319</v>
+      </c>
+      <c r="D29" s="66"/>
       <c r="E29" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H29" s="42"/>
-      <c r="I29" s="58"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="14"/>
       <c r="K29" s="47">
         <v>0.0</v>
       </c>
-      <c r="L29" s="56" t="s">
+      <c r="L29" s="65" t="s">
         <v>38</v>
       </c>
       <c r="M29" s="14"/>
     </row>
     <row r="30">
       <c r="A30" s="21" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>431</v>
+        <v>417</v>
+      </c>
+      <c r="L30" s="65" t="s">
+        <v>432</v>
       </c>
       <c r="M30" s="14"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="14"/>
@@ -6064,402 +5805,402 @@
       <c r="K31" s="47">
         <v>0.0</v>
       </c>
-      <c r="L31" s="56" t="s">
+      <c r="L31" s="65" t="s">
         <v>38</v>
       </c>
       <c r="M31" s="14"/>
     </row>
     <row r="32">
       <c r="A32" s="21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="L32" s="56" t="s">
-        <v>431</v>
+        <v>417</v>
+      </c>
+      <c r="L32" s="65" t="s">
+        <v>432</v>
       </c>
       <c r="M32" s="14"/>
     </row>
     <row r="33">
       <c r="A33" s="21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="D33" s="57"/>
+        <v>319</v>
+      </c>
+      <c r="D33" s="66"/>
       <c r="E33" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H33" s="42"/>
-      <c r="I33" s="58"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="14"/>
       <c r="K33" s="47">
         <v>6.0</v>
       </c>
-      <c r="L33" s="56" t="s">
-        <v>82</v>
+      <c r="L33" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M33" s="14"/>
     </row>
     <row r="34">
       <c r="A34" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="B34" s="59" t="s">
         <v>442</v>
       </c>
-      <c r="C34" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="D34" s="61"/>
+      <c r="B34" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="68"/>
       <c r="E34" s="25">
         <v>229.0</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="L34" s="65" t="s">
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="M34" s="63"/>
+      <c r="L34" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="M34" s="70"/>
     </row>
     <row r="35">
       <c r="A35" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="L35" s="72" t="s">
         <v>446</v>
       </c>
-      <c r="B35" s="59" t="s">
-        <v>447</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="L35" s="65" t="s">
-        <v>445</v>
-      </c>
-      <c r="M35" s="63"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="36">
       <c r="A36" s="21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="D36" s="57"/>
+        <v>323</v>
+      </c>
+      <c r="D36" s="66"/>
       <c r="E36" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H36" s="42"/>
-      <c r="I36" s="58"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="14"/>
       <c r="K36" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="L36" s="56" t="s">
         <v>454</v>
+      </c>
+      <c r="L36" s="65" t="s">
+        <v>455</v>
       </c>
       <c r="M36" s="14"/>
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="D37" s="57"/>
+        <v>319</v>
+      </c>
+      <c r="D37" s="66"/>
       <c r="E37" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H37" s="42"/>
-      <c r="I37" s="58"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="14"/>
       <c r="K37" s="47">
         <v>6.0</v>
       </c>
-      <c r="L37" s="66" t="s">
-        <v>82</v>
+      <c r="L37" s="73" t="s">
+        <v>83</v>
       </c>
       <c r="M37" s="14"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="D38" s="57"/>
+        <v>323</v>
+      </c>
+      <c r="D38" s="66"/>
       <c r="E38" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H38" s="42"/>
-      <c r="I38" s="58"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="14"/>
       <c r="K38" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="L38" s="66" t="s">
-        <v>461</v>
+        <v>445</v>
+      </c>
+      <c r="L38" s="73" t="s">
+        <v>462</v>
       </c>
       <c r="M38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="D39" s="57"/>
+        <v>323</v>
+      </c>
+      <c r="D39" s="66"/>
       <c r="E39" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H39" s="42"/>
-      <c r="I39" s="58"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="14"/>
       <c r="K39" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="L39" s="66" t="s">
-        <v>461</v>
+        <v>450</v>
+      </c>
+      <c r="L39" s="73" t="s">
+        <v>462</v>
       </c>
       <c r="M39" s="14"/>
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="15">
         <v>229.0</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H40" s="42"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="47" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L40" s="48" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H41" s="42"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="L41" s="56" t="s">
         <v>472</v>
+      </c>
+      <c r="L41" s="65" t="s">
+        <v>473</v>
       </c>
       <c r="M41" s="14"/>
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H42" s="42"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="L42" s="56" t="s">
         <v>472</v>
+      </c>
+      <c r="L42" s="65" t="s">
+        <v>473</v>
       </c>
       <c r="M42" s="14"/>
     </row>
     <row r="43">
       <c r="A43" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H43" s="42"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="L43" s="56" t="s">
         <v>472</v>
+      </c>
+      <c r="L43" s="65" t="s">
+        <v>473</v>
       </c>
       <c r="M43" s="14"/>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="14"/>
@@ -6467,61 +6208,61 @@
       <c r="K44" s="47">
         <v>6.0</v>
       </c>
-      <c r="L44" s="56" t="s">
-        <v>82</v>
+      <c r="L44" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M44" s="14"/>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="21">
         <v>229.0</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H45" s="42"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="L45" s="56" t="s">
-        <v>461</v>
+        <v>445</v>
+      </c>
+      <c r="L45" s="65" t="s">
+        <v>462</v>
       </c>
       <c r="M45" s="14"/>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H46" s="42"/>
       <c r="I46" s="14"/>
@@ -6529,30 +6270,30 @@
       <c r="K46" s="47">
         <v>7.0</v>
       </c>
-      <c r="L46" s="56" t="s">
-        <v>82</v>
+      <c r="L46" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M46" s="14"/>
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H47" s="42"/>
       <c r="I47" s="14"/>
@@ -6560,30 +6301,30 @@
       <c r="K47" s="47">
         <v>7.0</v>
       </c>
-      <c r="L47" s="56" t="s">
-        <v>82</v>
+      <c r="L47" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M47" s="14"/>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="14"/>
@@ -6591,59 +6332,59 @@
       <c r="K48" s="47">
         <v>7.0</v>
       </c>
-      <c r="L48" s="56" t="s">
-        <v>82</v>
+      <c r="L48" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M48" s="14"/>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H49" s="42"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="L49" s="56" t="s">
-        <v>461</v>
+        <v>450</v>
+      </c>
+      <c r="L49" s="65" t="s">
+        <v>462</v>
       </c>
       <c r="M49" s="14"/>
     </row>
     <row r="50">
       <c r="A50" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H50" s="42"/>
       <c r="I50" s="14"/>
@@ -6651,30 +6392,30 @@
       <c r="K50" s="47">
         <v>5.0</v>
       </c>
-      <c r="L50" s="56" t="s">
-        <v>82</v>
+      <c r="L50" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M50" s="14"/>
     </row>
     <row r="51">
       <c r="A51" s="15" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="14"/>
@@ -6682,30 +6423,30 @@
       <c r="K51" s="47">
         <v>5.0</v>
       </c>
-      <c r="L51" s="56" t="s">
-        <v>82</v>
+      <c r="L51" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M51" s="14"/>
     </row>
     <row r="52">
       <c r="A52" s="15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D52" s="31"/>
       <c r="E52" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H52" s="42"/>
       <c r="I52" s="14"/>
@@ -6713,30 +6454,30 @@
       <c r="K52" s="47">
         <v>5.0</v>
       </c>
-      <c r="L52" s="56" t="s">
-        <v>82</v>
+      <c r="L52" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M52" s="14"/>
     </row>
     <row r="53">
       <c r="A53" s="15" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="14"/>
@@ -6744,159 +6485,159 @@
       <c r="K53" s="47">
         <v>6.0</v>
       </c>
-      <c r="L53" s="56" t="s">
-        <v>82</v>
+      <c r="L53" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="M53" s="14"/>
     </row>
     <row r="54">
       <c r="A54" s="15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H54" s="42"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="L54" s="56" t="s">
         <v>445</v>
+      </c>
+      <c r="L54" s="65" t="s">
+        <v>446</v>
       </c>
       <c r="M54" s="14"/>
     </row>
     <row r="55">
       <c r="A55" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D55" s="31"/>
       <c r="E55" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H55" s="42"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
       <c r="K55" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="L55" s="56" t="s">
-        <v>445</v>
+        <v>450</v>
+      </c>
+      <c r="L55" s="65" t="s">
+        <v>446</v>
       </c>
       <c r="M55" s="14"/>
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D56" s="31"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H56" s="42"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="L56" s="56" t="s">
-        <v>445</v>
+        <v>450</v>
+      </c>
+      <c r="L56" s="65" t="s">
+        <v>446</v>
       </c>
       <c r="M56" s="14"/>
     </row>
     <row r="57">
       <c r="A57" s="15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H57" s="42"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="47" t="s">
-        <v>521</v>
-      </c>
-      <c r="L57" s="56" t="s">
         <v>522</v>
+      </c>
+      <c r="L57" s="65" t="s">
+        <v>523</v>
       </c>
       <c r="M57" s="14"/>
     </row>
     <row r="58">
       <c r="A58" s="15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H58" s="42"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="47" t="s">
-        <v>521</v>
-      </c>
-      <c r="L58" s="56" t="s">
         <v>522</v>
+      </c>
+      <c r="L58" s="65" t="s">
+        <v>523</v>
       </c>
       <c r="M58" s="14"/>
     </row>
@@ -6929,10 +6670,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
@@ -6974,23 +6715,23 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.71"/>
+    <col customWidth="1" min="1" max="1" width="24.29"/>
     <col customWidth="1" min="2" max="2" width="18.43"/>
     <col customWidth="1" min="3" max="3" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -7005,13 +6746,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -7049,13 +6790,13 @@
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -7071,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -7088,10 +6829,10 @@
     <row r="7">
       <c r="A7" s="14"/>
       <c r="B7" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>540</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>539</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -7105,10 +6846,10 @@
     <row r="8">
       <c r="A8" s="14"/>
       <c r="B8" s="31" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -7122,10 +6863,10 @@
     <row r="9">
       <c r="A9" s="14"/>
       <c r="B9" s="31" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -7151,10 +6892,10 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -7168,10 +6909,10 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B12" s="67" t="s">
         <v>546</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>547</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7185,10 +6926,10 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="B13" s="67" t="s">
         <v>548</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>549</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -7202,10 +6943,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="B14" s="67" t="s">
         <v>550</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>551</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -7219,10 +6960,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="B15" s="67" t="s">
         <v>552</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>553</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -7236,10 +6977,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="B16" s="67" t="s">
         <v>554</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>555</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -7253,10 +6994,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B17" s="67" t="s">
         <v>556</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>557</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -7283,10 +7024,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="B19" s="68" t="s">
         <v>558</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>559</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -7300,9 +7041,9 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="B20" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="B20" s="76" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="17"/>
@@ -7317,10 +7058,10 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22">
@@ -7343,36 +7084,36 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="B28" s="69" t="s">
         <v>563</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="B29" s="70" t="s">
         <v>565</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="B30" s="69" t="s">
         <v>567</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33">
@@ -7426,47 +7167,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>570</v>
+      <c r="C1" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>571</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>251</v>
+        <v>574</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>252</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B15" si="1">CONCATENATE("Neuron ",RIGHT(A2,LEN(A2) - (FIND("-",A2))))</f>
         <v>Neuron 1</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="14"/>
@@ -7474,30 +7215,30 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 2</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="H3" s="72"/>
+        <v>257</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 3</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="14"/>
@@ -7505,14 +7246,14 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="73" t="str">
+        <v>148</v>
+      </c>
+      <c r="B5" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="14"/>
@@ -7520,14 +7261,14 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="73" t="str">
+        <v>150</v>
+      </c>
+      <c r="B6" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="14"/>
@@ -7535,14 +7276,14 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="73" t="str">
+        <v>153</v>
+      </c>
+      <c r="B7" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="14"/>
@@ -7550,14 +7291,14 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="73" t="str">
+        <v>156</v>
+      </c>
+      <c r="B8" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="14"/>
@@ -7565,14 +7306,14 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="73" t="str">
+        <v>159</v>
+      </c>
+      <c r="B9" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="14"/>
@@ -7580,14 +7321,14 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="73" t="str">
+        <v>162</v>
+      </c>
+      <c r="B10" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="14"/>
@@ -7595,14 +7336,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="73" t="str">
+        <v>165</v>
+      </c>
+      <c r="B11" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="14"/>
@@ -7610,14 +7351,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="73" t="str">
+        <v>168</v>
+      </c>
+      <c r="B12" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="14"/>
@@ -7625,14 +7366,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="73" t="str">
+        <v>171</v>
+      </c>
+      <c r="B13" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="14"/>
@@ -7640,14 +7381,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="73" t="str">
+        <v>174</v>
+      </c>
+      <c r="B14" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -7655,14 +7396,14 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="73" t="str">
+        <v>177</v>
+      </c>
+      <c r="B15" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -7688,105 +7429,105 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="s">
-        <v>577</v>
-      </c>
-      <c r="C2" s="76" t="str">
+      <c r="A2" s="83" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="84" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="77" t="s">
-        <v>578</v>
-      </c>
-      <c r="C3" s="76" t="str">
+      <c r="A3" s="85" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="84" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="78" t="s">
-        <v>579</v>
-      </c>
-      <c r="C4" s="76" t="str">
+      <c r="A4" s="86" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" s="84" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="78" t="s">
-        <v>580</v>
-      </c>
-      <c r="C5" s="76" t="str">
+      <c r="A5" s="86" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="84" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="78" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" s="76" t="str">
+      <c r="A6" s="86" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" s="84" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="78" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" s="76" t="str">
+      <c r="A7" s="86" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="84" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="78" t="s">
-        <v>583</v>
-      </c>
-      <c r="C8" s="76" t="str">
+      <c r="A8" s="86" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="84" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="78" t="s">
-        <v>578</v>
-      </c>
-      <c r="C9" s="76" t="str">
+      <c r="A9" s="86" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" s="84" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="78" t="s">
-        <v>582</v>
-      </c>
-      <c r="C10" s="76" t="str">
+      <c r="A10" s="86" t="s">
+        <v>583</v>
+      </c>
+      <c r="C10" s="84" t="str">
         <f t="array" ref="C10">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A10,6,LEN(A10))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="78" t="s">
-        <v>584</v>
-      </c>
-      <c r="C11" s="76" t="str">
+      <c r="A11" s="86" t="s">
+        <v>585</v>
+      </c>
+      <c r="C11" s="84" t="str">
         <f t="array" ref="C11">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A11,6,LEN(A11))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>

--- a/sawg-stomach/source/sawg-stomach.xlsx
+++ b/sawg-stomach/source/sawg-stomach.xlsx
@@ -1306,7 +1306,7 @@
     <t>0,0,8,7,6</t>
   </si>
   <si>
-    <t>dmv,vn,dis_sto,,dis_sto,dis_sto</t>
+    <t>dmv,vn,dis_sto,dis_sto,dis_sto</t>
   </si>
   <si>
     <t>dc_8</t>
@@ -2052,7 +2052,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2254,6 +2254,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2627,82 +2630,82 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>588</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>590</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="90" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="88" t="s">
         <v>592</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="91" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="91" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="88" t="s">
         <v>598</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="88" t="s">
         <v>600</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="91" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="88" t="s">
         <v>602</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="91" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="88" t="s">
         <v>604</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="91" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="88" t="s">
         <v>606</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>607</v>
       </c>
     </row>
@@ -2710,7 +2713,7 @@
       <c r="A12" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="85" t="s">
         <v>609</v>
       </c>
     </row>
@@ -2718,7 +2721,7 @@
       <c r="A13" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="85" t="s">
         <v>611</v>
       </c>
     </row>
@@ -2726,7 +2729,7 @@
       <c r="A14" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="85" t="s">
         <v>613</v>
       </c>
     </row>
@@ -5650,7 +5653,7 @@
       <c r="K26" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="L26" s="68" t="s">
         <v>418</v>
       </c>
       <c r="M26" s="14"/>
@@ -5882,7 +5885,7 @@
       <c r="C34" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="68"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="25">
         <v>229.0</v>
       </c>
@@ -5892,16 +5895,16 @@
       <c r="G34" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="71" t="s">
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72" t="s">
         <v>445</v>
       </c>
-      <c r="L34" s="72" t="s">
+      <c r="L34" s="73" t="s">
         <v>446</v>
       </c>
-      <c r="M34" s="70"/>
+      <c r="M34" s="71"/>
     </row>
     <row r="35">
       <c r="A35" s="23" t="s">
@@ -5913,7 +5916,7 @@
       <c r="C35" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D35" s="68"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="21" t="s">
         <v>129</v>
       </c>
@@ -5923,16 +5926,16 @@
       <c r="G35" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L35" s="72" t="s">
+      <c r="L35" s="73" t="s">
         <v>446</v>
       </c>
-      <c r="M35" s="70"/>
+      <c r="M35" s="71"/>
     </row>
     <row r="36">
       <c r="A36" s="21" t="s">
@@ -5991,7 +5994,7 @@
       <c r="K37" s="47">
         <v>6.0</v>
       </c>
-      <c r="L37" s="73" t="s">
+      <c r="L37" s="74" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="14"/>
@@ -6022,7 +6025,7 @@
       <c r="K38" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="L38" s="73" t="s">
+      <c r="L38" s="74" t="s">
         <v>462</v>
       </c>
       <c r="M38" s="14"/>
@@ -6053,7 +6056,7 @@
       <c r="K39" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="L39" s="73" t="s">
+      <c r="L39" s="74" t="s">
         <v>462</v>
       </c>
       <c r="M39" s="14"/>
@@ -6911,7 +6914,7 @@
       <c r="A12" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="75" t="s">
         <v>547</v>
       </c>
       <c r="C12" s="14"/>
@@ -6928,7 +6931,7 @@
       <c r="A13" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="75" t="s">
         <v>549</v>
       </c>
       <c r="C13" s="14"/>
@@ -6945,7 +6948,7 @@
       <c r="A14" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="75" t="s">
         <v>551</v>
       </c>
       <c r="C14" s="14"/>
@@ -6962,7 +6965,7 @@
       <c r="A15" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="75" t="s">
         <v>553</v>
       </c>
       <c r="C15" s="14"/>
@@ -6979,7 +6982,7 @@
       <c r="A16" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="75" t="s">
         <v>555</v>
       </c>
       <c r="C16" s="14"/>
@@ -6996,7 +6999,7 @@
       <c r="A17" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="75" t="s">
         <v>557</v>
       </c>
       <c r="C17" s="14"/>
@@ -7026,7 +7029,7 @@
       <c r="A19" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="76" t="s">
         <v>559</v>
       </c>
       <c r="C19" s="14"/>
@@ -7043,7 +7046,7 @@
       <c r="A20" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="17"/>
@@ -7086,7 +7089,7 @@
       <c r="A28" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="78" t="s">
         <v>564</v>
       </c>
     </row>
@@ -7094,7 +7097,7 @@
       <c r="A29" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="79" t="s">
         <v>566</v>
       </c>
     </row>
@@ -7102,7 +7105,7 @@
       <c r="A30" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="78" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7167,16 +7170,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>571</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -7188,7 +7191,7 @@
       <c r="G1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="81" t="s">
         <v>252</v>
       </c>
       <c r="I1" s="31" t="s">
@@ -7224,8 +7227,8 @@
       <c r="D3" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
@@ -7248,7 +7251,7 @@
       <c r="A5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="81" t="str">
+      <c r="B5" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
@@ -7263,7 +7266,7 @@
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="81" t="str">
+      <c r="B6" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
@@ -7278,7 +7281,7 @@
       <c r="A7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="81" t="str">
+      <c r="B7" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
@@ -7293,7 +7296,7 @@
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="81" t="str">
+      <c r="B8" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
@@ -7308,7 +7311,7 @@
       <c r="A9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="81" t="str">
+      <c r="B9" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
@@ -7323,7 +7326,7 @@
       <c r="A10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="81" t="str">
+      <c r="B10" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
@@ -7338,7 +7341,7 @@
       <c r="A11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="81" t="str">
+      <c r="B11" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
@@ -7353,7 +7356,7 @@
       <c r="A12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="81" t="str">
+      <c r="B12" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
@@ -7368,7 +7371,7 @@
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="81" t="str">
+      <c r="B13" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
@@ -7383,7 +7386,7 @@
       <c r="A14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="81" t="str">
+      <c r="B14" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
@@ -7398,7 +7401,7 @@
       <c r="A15" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="81" t="str">
+      <c r="B15" s="82" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
@@ -7429,7 +7432,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7443,91 +7446,91 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>578</v>
       </c>
-      <c r="C2" s="84" t="str">
+      <c r="C2" s="85" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>579</v>
       </c>
-      <c r="C3" s="84" t="str">
+      <c r="C3" s="85" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="87" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="84" t="str">
+      <c r="C4" s="85" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>581</v>
       </c>
-      <c r="C5" s="84" t="str">
+      <c r="C5" s="85" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="87" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="84" t="str">
+      <c r="C6" s="85" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>583</v>
       </c>
-      <c r="C7" s="84" t="str">
+      <c r="C7" s="85" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>584</v>
       </c>
-      <c r="C8" s="84" t="str">
+      <c r="C8" s="85" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="87" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="84" t="str">
+      <c r="C9" s="85" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="87" t="s">
         <v>583</v>
       </c>
-      <c r="C10" s="84" t="str">
+      <c r="C10" s="85" t="str">
         <f t="array" ref="C10">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A10,6,LEN(A10))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="87" t="s">
         <v>585</v>
       </c>
-      <c r="C11" s="84" t="str">
+      <c r="C11" s="85" t="str">
         <f t="array" ref="C11">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A11,6,LEN(A11))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>
